--- a/biology/Botanique/Parc_régional_des_Grandes-Coulées/Parc_régional_des_Grandes-Coulées.xlsx
+++ b/biology/Botanique/Parc_régional_des_Grandes-Coulées/Parc_régional_des_Grandes-Coulées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_r%C3%A9gional_des_Grandes-Coul%C3%A9es</t>
+          <t>Parc_régional_des_Grandes-Coulées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc régional des Grandes-Coulées est un parc régional du Québec inauguré en 2011 et situé dans les municipalités de Notre-Dame-de-Lourdes, Plessisville et Villeroy, ainsi que dans la Ville de Plessisville, dans la municipalité régionale de comté (MRC) de L'Érable, dans la région administrative du Centre-du-Québec, au Québec, au Canada. Il est d'une superficie de 30,97 km2, dont la Forêt ancienne couvrant 9,3 km2 et la Grande tourbière de Villeroy occupant 6,2 km2.
-La raison d'être du parc est de se positionner comme un lieu de pratique d'activités récréatives de plein air et de rendre son territoire accessible et attractif pour la population de la MRC de l'Érable, mais aussi pour les visiteurs[1].
+La raison d'être du parc est de se positionner comme un lieu de pratique d'activités récréatives de plein air et de rendre son territoire accessible et attractif pour la population de la MRC de l'Érable, mais aussi pour les visiteurs.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_r%C3%A9gional_des_Grandes-Coul%C3%A9es</t>
+          <t>Parc_régional_des_Grandes-Coulées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Administration
-Le parc est divisé en cinq parties, dont deux secteurs protégés, la Forêt ancienne et la Grande tourbière. La Forêt sauvage est la Plaine sont quant à eux situés à Villeroy et sont utilisées pour l'observation de la nature et la motoneige[2]. La surface totale occupée par les deux secteurs principaux, qui ne sont pas reliés, totalise 30,97 km2, dont 20,67 km2 sont occupés par la tourbière et le reste par la forêt. La cinquième partie du parc est l'office de tourisme de Plessisville, le Carrefour de l'Érable, qui sert aussi de centre d'information pour ce dernier depuis 2012[3].
-Installations
-On peut retrouver plusieurs sentiers aménagés dans chacun des secteurs, le plus comportant 10 km de sentiers et le second en comportant 3 km, dont 1.2 km de pavé en bois[4]. Il y a aussi des installations d'hébergement, comme des refuges, et des installations sanitaires. Des structures d'hébertisme y ont aussi été implantées, comme des jeux de cordes, en plus d'une aire de restauration. Plusieurs panneaux d'informations sur le parc sont présents[5].
+          <t>Administration</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc est divisé en cinq parties, dont deux secteurs protégés, la Forêt ancienne et la Grande tourbière. La Forêt sauvage est la Plaine sont quant à eux situés à Villeroy et sont utilisées pour l'observation de la nature et la motoneige. La surface totale occupée par les deux secteurs principaux, qui ne sont pas reliés, totalise 30,97 km2, dont 20,67 km2 sont occupés par la tourbière et le reste par la forêt. La cinquième partie du parc est l'office de tourisme de Plessisville, le Carrefour de l'Érable, qui sert aussi de centre d'information pour ce dernier depuis 2012.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_r%C3%A9gional_des_Grandes-Coul%C3%A9es</t>
+          <t>Parc_régional_des_Grandes-Coulées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Histoire</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">À la suite d'une demande de la MRC en 2010, le parc régional des Grandes-Coulées a été officiellement reconnu par le ministère des Affaires municipales et du Logement (MAMH)[1]. Le parc a été inauguré en novembre 2011 par la MRC de l'Érable[4] dans le but de développer le tourisme dans sa région. Le projet constituait au début un regroupement de cinq différents pôles d'activités situés à Villeroy et Plessisville, passant par quelques autres villages. Ces dernières sont la Forêt ancienne, la Grande tourbière, la Forêt sauvage, la Plaine et le Carrefour de l'Érable[2]. En 2018, le coordonnateur de la MRC de l'Érable, Steve Garneau, a fait savoir qu'il voulait investir 200 000 $ CAD à travers les années d'après sur le réaménagement du parc[6].
+          <t>Installations</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut retrouver plusieurs sentiers aménagés dans chacun des secteurs, le plus comportant 10 km de sentiers et le second en comportant 3 km, dont 1.2 km de pavé en bois. Il y a aussi des installations d'hébergement, comme des refuges, et des installations sanitaires. Des structures d'hébertisme y ont aussi été implantées, comme des jeux de cordes, en plus d'une aire de restauration. Plusieurs panneaux d'informations sur le parc sont présents.
 </t>
         </is>
       </c>
@@ -559,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_r%C3%A9gional_des_Grandes-Coul%C3%A9es</t>
+          <t>Parc_régional_des_Grandes-Coulées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,16 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Patrimoine naturel</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc a pour but de protéger les divers espèces animales et végétales qui se trouvent sur son territoire.
-Faune
-Le secteur de la Grande tourbière abrite plusieurs espèces animales comme la Maubèche des champs et plusieurs types de papillons comme l'hépiale du saule (SthenopisSthenopis thule). Des espèces potentiellement présentes comprennent la Grue du Canada et le Hibou des marais[2].
-Flore
-On peut y retrouver la sarracénie et le droséra à feuilles rondes, deux espèces de plantes carnivores. C'est aussi l'endroit où se trouve le plus de fougères de Virginie (Woodwardia virginicaWoodwardia) à l'est du Québec.
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la suite d'une demande de la MRC en 2010, le parc régional des Grandes-Coulées a été officiellement reconnu par le ministère des Affaires municipales et du Logement (MAMH). Le parc a été inauguré en novembre 2011 par la MRC de l'Érable dans le but de développer le tourisme dans sa région. Le projet constituait au début un regroupement de cinq différents pôles d'activités situés à Villeroy et Plessisville, passant par quelques autres villages. Ces dernières sont la Forêt ancienne, la Grande tourbière, la Forêt sauvage, la Plaine et le Carrefour de l'Érable. En 2018, le coordonnateur de la MRC de l'Érable, Steve Garneau, a fait savoir qu'il voulait investir 200 000 $ CAD à travers les années d'après sur le réaménagement du parc.
 </t>
         </is>
       </c>
@@ -594,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Parc_r%C3%A9gional_des_Grandes-Coul%C3%A9es</t>
+          <t>Parc_régional_des_Grandes-Coulées</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,12 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Activités sportives</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des activités sportives qui y sont praticables et permises incluent la pêche, le canicross, le cani-VTT, la randonnée en raquettes, la randonnée pédestre, la course et le vélo. De l'équipement sportif est aussi disponible en location[5]. L'hiver, le parc est aussi utilisé pour la motoneige[2],[7].
+          <t>Patrimoine naturel</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc a pour but de protéger les divers espèces animales et végétales qui se trouvent sur son territoire.
 </t>
         </is>
       </c>
@@ -625,7 +646,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Parc_r%C3%A9gional_des_Grandes-Coul%C3%A9es</t>
+          <t>Parc_régional_des_Grandes-Coulées</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,12 +661,121 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Patrimoine naturel</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Faune</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le secteur de la Grande tourbière abrite plusieurs espèces animales comme la Maubèche des champs et plusieurs types de papillons comme l'hépiale du saule (SthenopisSthenopis thule). Des espèces potentiellement présentes comprennent la Grue du Canada et le Hibou des marais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Parc_régional_des_Grandes-Coulées</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_r%C3%A9gional_des_Grandes-Coul%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Patrimoine naturel</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Flore</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut y retrouver la sarracénie et le droséra à feuilles rondes, deux espèces de plantes carnivores. C'est aussi l'endroit où se trouve le plus de fougères de Virginie (Woodwardia virginicaWoodwardia) à l'est du Québec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Parc_régional_des_Grandes-Coulées</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_r%C3%A9gional_des_Grandes-Coul%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Activités sportives</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des activités sportives qui y sont praticables et permises incluent la pêche, le canicross, le cani-VTT, la randonnée en raquettes, la randonnée pédestre, la course et le vélo. De l'équipement sportif est aussi disponible en location. L'hiver, le parc est aussi utilisé pour la motoneige,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Parc_régional_des_Grandes-Coulées</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parc_r%C3%A9gional_des_Grandes-Coul%C3%A9es</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Fréquentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc ouvre du lever jusqu'au coucher du soleil. Le secteur de la Forêt ancienne ouvre à l'année, tandis que celui de la Grande tourbière ouvre du 1er mai au 30 octobre[5]. L'entrée est gratuite[4],[5].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc ouvre du lever jusqu'au coucher du soleil. Le secteur de la Forêt ancienne ouvre à l'année, tandis que celui de la Grande tourbière ouvre du 1er mai au 30 octobre. L'entrée est gratuite,.
 </t>
         </is>
       </c>
